--- a/List_w15_A3.xlsx
+++ b/List_w15_A3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ericsson-my.sharepoint.com/personal/wilhelm_meding_ericsson_com/Documents/Research/2024/AI_finding_latency/visual_studio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\requirements_standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="8_{01958EE5-E004-41FF-81B4-51C3AD7D1E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EDEEC59-4E56-4EB4-9592-A3C8B2D60FB1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993DDE0A-9768-4C92-B0B9-FADE8F95E6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{636553AC-C859-44FA-A214-3636CA836D00}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{636553AC-C859-44FA-A214-3636CA836D00}"/>
   </bookViews>
   <sheets>
     <sheet name="R_NR" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
   <si>
     <t>Text</t>
   </si>
@@ -223,24 +223,15 @@
     <t>High latency communication is supported by extended buffering of downlink data in the UPF, SMF or NEF when a UE is using power saving functions in CM-IDLE state or in RRC_INACTIVE state, or when the UE is using a satellite access with discontinuous coverage and the UE is not reachable.</t>
   </si>
   <si>
-    <t>23.501</t>
-  </si>
-  <si>
     <t>L4S (Low Latency, Low Loss and Scalable Throughput) is described in IETF RFC 9330, IETF RFC 9331 and IETF RFC 9332.</t>
   </si>
   <si>
     <t>[R-5.2.1-002] The 3GPP system shall be able to deliver route modification information received from a UTM to a UAS with a latency of less than 500ms.</t>
   </si>
   <si>
-    <t>22.125</t>
-  </si>
-  <si>
     <t xml:space="preserve">The QoS management consists of fulfilling the requirements for the QoS parameters i.e. latency, throughput, reliability and jitter, while the clients communicating with each other via the server. </t>
   </si>
   <si>
-    <t>24.548</t>
-  </si>
-  <si>
     <t>REQ-LAT_MDA-02 MDA (Management Data Analytics) capability for E2E latency analytics shall include providing the root cause analysis of the E2E latency issue.</t>
   </si>
   <si>
@@ -260,16 +251,13 @@
   </si>
   <si>
     <t>The Pns for a network slice of type URLLC is the sum of UL and DL traffic volumes at N3 or N9 interface(s) on a per S-NSSAI basis multiplied by the inverse of the end-to-end User Plane (UP) latency of the network slice.</t>
-  </si>
-  <si>
-    <t>28.554</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +339,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -374,10 +369,10 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -392,7 +387,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -401,7 +396,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -416,10 +411,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -435,7 +427,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -772,496 +767,476 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD114E0F-AF0F-4269-A7D6-4200CB7DA093}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="137.26171875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.89453125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="9" style="15"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="137.265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.86328125" style="22" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="15">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="19" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="20" t="s">
+      <c r="B2" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="20" t="s">
+      <c r="B3" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="20" t="s">
+      <c r="B4" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="15">
-        <v>1</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="20" t="s">
+      <c r="B5" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="20" t="s">
+      <c r="B8" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="15">
-        <v>1</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="20" t="s">
+      <c r="B9" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="20" t="s">
+      <c r="B10" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="15">
-        <v>1</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+      <c r="B20" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="15">
-        <v>1</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>68</v>
+      </c>
+      <c r="B37" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="15">
-        <v>1</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>69</v>
+      </c>
+      <c r="B38" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>70</v>
+      </c>
+      <c r="B39" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="15">
-        <v>1</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="17" t="s">
+      <c r="B42" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="17" t="s">
+      <c r="B43" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A44" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="17" t="s">
+      <c r="B44" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="17" t="s">
+      <c r="B45" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="17" t="s">
+      <c r="B46" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="17" t="s">
+      <c r="B47" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="17" t="s">
+      <c r="B48" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A49" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="17" t="s">
+      <c r="B49" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A50" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="17" t="s">
+      <c r="B50" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A51" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B51" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="17" t="s">
+      <c r="B51" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A52" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="15">
-        <v>0</v>
-      </c>
-      <c r="D52" s="15"/>
-    </row>
-    <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="17" t="s">
+      <c r="B52" s="22">
+        <v>0</v>
+      </c>
+      <c r="C52" s="15"/>
+    </row>
+    <row r="53" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A53" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="17" t="s">
+      <c r="B53" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A54" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B54" s="15">
-        <v>0</v>
-      </c>
-      <c r="D54" s="15"/>
-    </row>
-    <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="17" t="s">
+      <c r="B54" s="22">
+        <v>0</v>
+      </c>
+      <c r="C54" s="15"/>
+    </row>
+    <row r="55" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A55" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B55" s="15">
-        <v>0</v>
-      </c>
-      <c r="D55" s="15"/>
-    </row>
-    <row r="56" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="17" t="s">
+      <c r="B55" s="22">
+        <v>0</v>
+      </c>
+      <c r="C55" s="15"/>
+    </row>
+    <row r="56" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A56" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="15">
-        <v>0</v>
-      </c>
-      <c r="D56" s="15"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D57" s="15"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D58" s="15"/>
+      <c r="B56" s="22">
+        <v>0</v>
+      </c>
+      <c r="C56" s="15"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C57" s="15"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C58" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1273,18 +1248,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D51123B-25DA-4FDA-8A1B-FC0C3B45D7FC}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.20703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="147.3125" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="8.83984375" style="7"/>
+    <col min="1" max="1" width="16.19921875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="147.33203125" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="8.86328125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1292,16 +1267,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="21"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -1309,7 +1284,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1317,7 +1292,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
@@ -1325,15 +1300,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
@@ -1341,7 +1316,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
@@ -1349,7 +1324,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
@@ -1357,7 +1332,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1365,7 +1340,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
@@ -1373,7 +1348,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
@@ -1381,31 +1356,31 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="s">
         <v>10</v>
       </c>
@@ -1413,7 +1388,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="13" t="s">
         <v>10</v>
       </c>

--- a/List_w15_A3.xlsx
+++ b/List_w15_A3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\requirements_standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993DDE0A-9768-4C92-B0B9-FADE8F95E6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6BECE6-5EFB-4547-8B52-21117962FC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{636553AC-C859-44FA-A214-3636CA836D00}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{636553AC-C859-44FA-A214-3636CA836D00}"/>
   </bookViews>
   <sheets>
     <sheet name="R_NR" sheetId="1" r:id="rId1"/>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD114E0F-AF0F-4269-A7D6-4200CB7DA093}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1248,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D51123B-25DA-4FDA-8A1B-FC0C3B45D7FC}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
